--- a/labels_sources.xlsx
+++ b/labels_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70407DE-06C1-2A49-AA1F-D80FDBB27D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA4D9B-905B-4243-9CBE-363D889AF364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="2180" windowWidth="27640" windowHeight="16940" xr2:uid="{2F97E033-48E7-9147-96CD-0104672D7734}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>source_label</t>
   </si>
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t>nijc</t>
+  </si>
+  <si>
+    <t>detention_management</t>
+  </si>
+  <si>
+    <t>https://www.ice.gov/detain/detention-management</t>
+  </si>
+  <si>
+    <t>annual_reports</t>
+  </si>
+  <si>
+    <t>https://www.ice.gov/information-library/annual-report</t>
+  </si>
+  <si>
+    <t>OHSS</t>
+  </si>
+  <si>
+    <t>enf_monthly</t>
+  </si>
+  <si>
+    <t>https://ohss.dhs.gov/topics/immigration/immigration-enforcement/monthly-tables</t>
   </si>
 </sst>
 </file>
@@ -501,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9268B62C-30C4-D347-8937-7F689C4F0F88}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,6 +713,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
